--- a/tools/documents/AT-Fuzzing_Subjects.xlsx
+++ b/tools/documents/AT-Fuzzing_Subjects.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\tools\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824D236-3120-45DC-9F12-9D9D751D2276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>libxml2</t>
   </si>
@@ -96,9 +104,6 @@
     <t>The ZZIPlib provides read access on ZIP-archives and unpacked data</t>
   </si>
   <si>
-    <t>splite</t>
-  </si>
-  <si>
     <t>SQLite is a C-language library that implements a small, fast, self-contained, high-reliability, full-featured, SQL database engine.</t>
   </si>
   <si>
@@ -134,168 +139,168 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">PID</t>
+      <t>PID</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">project</t>
+      <t>project</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ver. / tag</t>
+      <t>ver. / tag</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">description</t>
+      <t>description</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">target + params</t>
+      <t>target + params</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">seeds</t>
+      <t>seeds</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-        <b val="true"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">org / repo link</t>
+      <t>org / repo link</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/GNOME/libxml2</t>
+      <t>https://github.com/GNOME/libxml2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://www.gnu.org/software/binutils/</t>
+      <t>https://www.gnu.org/software/binutils/</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/tbeu/matio</t>
+      <t>https://github.com/nothings/stb</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/nothings/stb</t>
+      <t>https://github.com/openssl/openssl</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/openssl/openssl</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/fmtlib/fmt</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve">https://libexpat.github.io/
+      <t>https://libexpat.github.io/
 https://github.com/libexpat/libexpat</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,141 +308,190 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/ckolivas/lrzip</t>
+      <t>https://github.com/ckolivas/lrzip</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/gdraheim/zziplib</t>
+      <t>https://github.com/gdraheim/zziplib</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://www.sqlite.org/index.html</t>
+      <t>https://www.sqlite.org/index.html</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://exiv2.org/</t>
+      <t>https://exiv2.org/</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://www.xpdfreader.com/</t>
+      <t>https://www.xpdfreader.com/</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">http://podofo.sourceforge.net/index.html</t>
+      <t>http://podofo.sourceforge.net/index.html</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/tats/w3m
+      <t>https://github.com/tats/w3m
 http://w3m.sourceforge.net/</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/tbeu/matio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/fmtlib/fmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <color rgb="175CEB"/>
-      <u val="single"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="微软雅黑"/>
-      <sz val="10.0"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -446,118 +500,108 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" vertical="center"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,7 +752,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -732,9 +776,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -758,7 +802,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -793,7 +837,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -811,7 +855,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -836,7 +880,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -845,66 +889,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="14.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
-    <col min="5" max="5" width="31.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="23.0" hidden="false" customWidth="true"/>
-    <col min="7" max="7" width="45.0" hidden="false" customWidth="true"/>
-    <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
-    <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
-    <col min="10" max="10" width="14.0" hidden="false" customWidth="true"/>
-    <col min="11" max="11" width="14.0" hidden="false" customWidth="true"/>
-    <col min="12" max="12" width="14.0" hidden="false" customWidth="true"/>
-    <col min="13" max="13" width="14.0" hidden="false" customWidth="true"/>
-    <col min="14" max="14" width="14.0" hidden="false" customWidth="true"/>
-    <col min="15" max="15" width="14.0" hidden="false" customWidth="true"/>
-    <col min="16" max="16" width="14.0" hidden="false" customWidth="true"/>
-    <col min="17" max="17" width="14.0" hidden="false" customWidth="true"/>
-    <col min="18" max="18" width="14.0" hidden="false" customWidth="true"/>
-    <col min="19" max="19" width="14.0" hidden="false" customWidth="true"/>
-    <col min="20" max="20" width="14.0" hidden="false" customWidth="true"/>
-    <col min="21" max="21" width="14.0" hidden="false" customWidth="true"/>
-    <col min="22" max="22" width="14.0" hidden="false" customWidth="true"/>
-    <col min="23" max="23" width="14.0" hidden="false" customWidth="true"/>
-    <col min="24" max="24" width="14.0" hidden="false" customWidth="true"/>
+    <col min="1" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="24" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -924,9 +952,9 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -942,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -962,21 +990,21 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" ht="97.5" customHeight="true">
-      <c r="A3" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
+      <c r="G3" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -996,16 +1024,16 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" ht="84.0" customHeight="true">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:24" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1024,16 +1052,16 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" ht="84.0" customHeight="true">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:24" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1052,16 +1080,16 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" ht="69.75" customHeight="true">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:24" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1080,16 +1108,16 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" ht="69.75" customHeight="true">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:24" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1108,16 +1136,16 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" ht="69.75" customHeight="true">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:24" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1136,11 +1164,11 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
@@ -1149,8 +1177,8 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
+      <c r="G9" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1170,11 +1198,11 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4"/>
@@ -1184,7 +1212,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1204,11 +1232,11 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4"/>
@@ -1218,7 +1246,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1238,9 +1266,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>6.0</v>
+    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -1251,8 +1279,8 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
-        <v>51</v>
+      <c r="G12" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1272,11 +1300,11 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5"/>
@@ -1286,9 +1314,9 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1308,9 +1336,9 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>8.0</v>
+    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
@@ -1322,9 +1350,9 @@
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1344,9 +1372,9 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>9.0</v>
+    <row r="15" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>25</v>
@@ -1355,10 +1383,10 @@
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1378,23 +1406,23 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
+    <row r="16" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1414,21 +1442,21 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>11.0</v>
+    <row r="17" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1448,23 +1476,23 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1484,21 +1512,21 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>13.0</v>
+    <row r="19" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13" t="s">
-        <v>58</v>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1518,21 +1546,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>14.0</v>
+    <row r="20" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1552,7 +1580,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1578,7 +1606,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1604,7 +1632,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1630,7 +1658,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1656,7 +1684,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1682,7 +1710,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1708,7 +1736,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1734,7 +1762,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1760,7 +1788,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1786,7 +1814,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1812,7 +1840,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1838,7 +1866,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1864,7 +1892,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1890,7 +1918,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1916,7 +1944,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1942,7 +1970,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1968,7 +1996,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1994,7 +2022,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2020,7 +2048,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2046,7 +2074,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2072,7 +2100,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2098,7 +2126,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2124,7 +2152,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2150,7 +2178,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2176,7 +2204,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2202,7 +2230,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2228,7 +2256,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2254,7 +2282,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2280,7 +2308,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2306,7 +2334,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2332,7 +2360,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2358,7 +2386,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2384,7 +2412,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2410,7 +2438,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2436,7 +2464,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2462,7 +2490,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2488,7 +2516,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2514,7 +2542,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2540,7 +2568,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2566,7 +2594,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2592,7 +2620,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2618,7 +2646,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2644,7 +2672,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2670,7 +2698,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2696,7 +2724,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2722,7 +2750,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2748,7 +2776,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2774,7 +2802,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2800,7 +2828,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2826,7 +2854,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2852,7 +2880,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2878,7 +2906,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2904,7 +2932,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2930,7 +2958,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2956,7 +2984,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2982,7 +3010,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3008,7 +3036,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3034,7 +3062,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3060,7 +3088,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3086,7 +3114,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3112,7 +3140,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3138,7 +3166,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3164,7 +3192,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3190,7 +3218,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3216,7 +3244,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3242,7 +3270,7 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3268,7 +3296,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3294,7 +3322,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3320,7 +3348,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3346,7 +3374,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3372,7 +3400,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3398,7 +3426,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3424,7 +3452,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3450,7 +3478,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3476,7 +3504,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3502,7 +3530,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3528,7 +3556,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3554,7 +3582,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3580,7 +3608,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3606,7 +3634,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3632,7 +3660,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3658,7 +3686,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3684,7 +3712,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3710,7 +3738,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3736,7 +3764,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3762,7 +3790,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3788,7 +3816,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3814,7 +3842,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3840,7 +3868,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3866,7 +3894,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3892,7 +3920,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3918,7 +3946,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3944,7 +3972,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3970,7 +3998,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3996,7 +4024,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4022,7 +4050,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4048,7 +4076,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4074,7 +4102,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4100,7 +4128,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4126,7 +4154,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4152,7 +4180,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4178,7 +4206,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4204,7 +4232,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4230,7 +4258,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4256,7 +4284,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4282,7 +4310,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4308,7 +4336,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4334,7 +4362,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4360,7 +4388,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4386,7 +4414,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4412,7 +4440,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4438,7 +4466,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4464,7 +4492,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4490,7 +4518,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4516,7 +4544,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4542,7 +4570,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4568,7 +4596,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4595,28 +4623,29 @@
       <c r="X137" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="3">
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G9" r:id="rId3"/>
-    <hyperlink ref="G10" r:id="rId4"/>
-    <hyperlink ref="G11" r:id="rId5"/>
-    <hyperlink ref="G12" r:id="rId6"/>
-    <hyperlink ref="G13" r:id="rId7"/>
-    <hyperlink ref="G14" r:id="rId8"/>
-    <hyperlink ref="G15" r:id="rId9"/>
-    <hyperlink ref="G16" r:id="rId10"/>
-    <hyperlink ref="G17" r:id="rId11"/>
-    <hyperlink ref="G18" r:id="rId12"/>
-    <hyperlink ref="G19" r:id="rId13"/>
-    <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>